--- a/biology/Botanique/Desmidiaceae/Desmidiaceae.xlsx
+++ b/biology/Botanique/Desmidiaceae/Desmidiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Desmidiaceae (en français : Desmidiacées) sont, parmi les algues, la principale famille de l'ordre des Desmidiales.
 Elle compte de 32 (selon Bourelly[réf. nécessaire]) à 41 genres (selon species 2000[réf. nécessaire]) dont les principaux sont : Micrasterias, Closterium, Cosmarium, Desmidium, Staurastrum.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Desmidium, dérivé du grec δεσμοσ / desmos « ce qui sert à lier ; lien », en référence au fait que les cellules de cette algue ont tendance à se connecter à d'autres cellules du même genre.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (28 oct. 2012)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (28 oct. 2012) :
 Actinotaenium (en) (Nägeli) Teiling
 Allorgeia (hr) Gauthier-Lièvre
 Amscottia Grönblad
@@ -590,7 +606,7 @@
 Triploceras (en) J.W.Bailey
 Vincularia K.Fuciková &amp; J.Kastovsky
 Xanthidium (en) Ehrenberg ex Ralfs
-Selon Catalogue of Life                                   (28 oct. 2012)[2] :
+Selon Catalogue of Life                                   (28 oct. 2012) :
 Actinotaenium
 Allorgeia
 Amscottia
@@ -632,7 +648,7 @@
 Tetmemorus
 Triploceras
 Xanthidium
-Selon ITIS      (28 oct. 2012)[3] :
+Selon ITIS      (28 oct. 2012) :
 Actinotaenium (Naegeli) Teiling
 Arthrodesmus Ehrenberg Ex Ralfs, 1848
 Bambusina Kuetzing Ex Kuetzing, 1849
@@ -655,7 +671,7 @@
 Tetmemorus Ralfs, 1848
 Triploceras Bailey, 1851
 Xanthidium Ehrenberg Ex Ralfs, 1848
-Selon NCBI  (28 oct. 2012)[4] :
+Selon NCBI  (28 oct. 2012) :
 Actinotaenium
 Arthrodesmus
 Bambusina
@@ -681,7 +697,7 @@
 Triplastrum
 Triploceras
 Xanthidium
-Selon World Register of Marine Species                               (28 oct. 2012)[5] :
+Selon World Register of Marine Species                               (28 oct. 2012) :
 Actinotaenium (Nägeli) Teiling, 1954
 Allorgeia Gauthier-Lièvre, 1809
 Amscottia Groenblad, 1954
